--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3120.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3120.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.584816435685501</v>
+        <v>2.178967237472534</v>
       </c>
       <c r="B1">
-        <v>2.2176629528582</v>
+        <v>2.619049549102783</v>
       </c>
       <c r="C1">
-        <v>3.989594920323702</v>
+        <v>2.748536825180054</v>
       </c>
       <c r="D1">
-        <v>4.237537282350908</v>
+        <v>2.803977966308594</v>
       </c>
       <c r="E1">
-        <v>0.5440603631465554</v>
+        <v>0.8100827932357788</v>
       </c>
     </row>
   </sheetData>
